--- a/data/sector_fi.xlsx
+++ b/data/sector_fi.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Energia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6851BA0D-6737-49AE-A1A4-F1C8750164C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084A8A9B-AED3-4780-9453-E3535B5117DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="28">
   <si>
     <t>Forma</t>
   </si>
@@ -58,9 +66,6 @@
     <t>Diesel</t>
   </si>
   <si>
-    <t>Fuel</t>
-  </si>
-  <si>
     <t>Outros</t>
   </si>
   <si>
@@ -79,9 +84,6 @@
     <t>#d3ede9</t>
   </si>
   <si>
-    <t>#e3e1ed</t>
-  </si>
-  <si>
     <t>#e7f2d3</t>
   </si>
   <si>
@@ -100,9 +102,6 @@
     <t>#8DD3C7</t>
   </si>
   <si>
-    <t>#BEBADA</t>
-  </si>
-  <si>
     <t>#B3DE69</t>
   </si>
   <si>
@@ -110,6 +109,9 @@
   </si>
   <si>
     <t>#FB8072</t>
+  </si>
+  <si>
+    <t>Gasóleo</t>
   </si>
 </sst>
 </file>
@@ -511,13 +513,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -553,28 +562,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>17.157299200000001</v>
+        <v>199.53938969599997</v>
       </c>
       <c r="C2">
-        <v>906.84390729999996</v>
+        <v>10312.772197480001</v>
       </c>
       <c r="D2">
-        <v>1682.2338531</v>
+        <v>19564.379711553</v>
       </c>
       <c r="E2">
-        <v>1457.8749183</v>
+        <v>17188.907744248001</v>
       </c>
       <c r="F2">
-        <v>9063.9003432999998</v>
+        <v>105413.16099257901</v>
       </c>
       <c r="G2">
         <v>2008</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -588,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>102709.1161273176</v>
+        <v>1194507.0205607037</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -600,10 +609,10 @@
         <v>2008</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -611,16 +620,16 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2527.5526647524998</v>
+        <v>29395.437491071574</v>
       </c>
       <c r="C4">
-        <v>2762.3110014224999</v>
+        <v>31421.584350911708</v>
       </c>
       <c r="D4">
-        <v>259841.25471892499</v>
+        <v>3021953.7923810976</v>
       </c>
       <c r="E4">
-        <v>6662.0517445350006</v>
+        <v>78183.754384574029</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -629,10 +638,10 @@
         <v>2008</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -640,16 +649,16 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1420.1420874784001</v>
       </c>
       <c r="C5">
-        <v>505.11902459999999</v>
+        <v>5904.5231996479997</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>96239.966235329543</v>
       </c>
       <c r="E5">
-        <v>30479.853911000009</v>
+        <v>356054.90290772304</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -658,10 +667,10 @@
         <v>2008</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -669,28 +678,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>122.11023968000001</v>
+        <v>5539.4089999999997</v>
       </c>
       <c r="C6">
-        <v>57.649487500000014</v>
+        <v>139109.87</v>
       </c>
       <c r="D6">
-        <v>9525.9222221349992</v>
+        <v>160103.93400000001</v>
       </c>
       <c r="E6">
-        <v>100.7924962</v>
+        <v>2264769.9879999999</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>737911.36600000004</v>
       </c>
       <c r="G6">
         <v>2008</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -698,77 +707,77 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>469.45810037422859</v>
+        <v>5921.5278692400007</v>
       </c>
       <c r="C7">
-        <v>15146.42431467226</v>
+        <v>160437.49010912003</v>
       </c>
       <c r="D7">
-        <v>13568.611510376089</v>
+        <v>11318.890173099999</v>
       </c>
       <c r="E7">
-        <v>187902.5645218381</v>
+        <v>449508.38178448012</v>
       </c>
       <c r="F7">
-        <v>62537.080783692298</v>
+        <v>604981.28421934112</v>
       </c>
       <c r="G7">
         <v>2008</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>130.61549958200001</v>
+      </c>
+      <c r="C8">
+        <v>12384.296709438002</v>
+      </c>
+      <c r="D8">
+        <v>22703.176734036002</v>
+      </c>
+      <c r="E8">
+        <v>12602.760140895001</v>
+      </c>
+      <c r="F8">
+        <v>105080.20774736202</v>
+      </c>
+      <c r="G8">
+        <v>2009</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>509.1045246000001</v>
-      </c>
-      <c r="C8">
-        <v>13828.460358300001</v>
-      </c>
-      <c r="D8">
-        <v>973.14381149999986</v>
-      </c>
-      <c r="E8">
-        <v>38611.756085699999</v>
-      </c>
-      <c r="F8">
-        <v>52013.385041100097</v>
-      </c>
-      <c r="G8">
-        <v>2008</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1080</v>
+        <v>3096.4642566239222</v>
       </c>
       <c r="D9">
-        <v>1952</v>
+        <v>1341697.020279486</v>
       </c>
       <c r="E9">
-        <v>1069</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>9035</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>2009</v>
@@ -777,24 +786,24 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>28625.132240498475</v>
       </c>
       <c r="C10">
-        <v>266</v>
+        <v>50101.090490892377</v>
       </c>
       <c r="D10">
-        <v>115365</v>
+        <v>4621145.8533206815</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>48794.111119851084</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -806,24 +815,24 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>2461</v>
+        <v>103.34042118400001</v>
       </c>
       <c r="C11">
-        <v>4476</v>
+        <v>1401.1351821999999</v>
       </c>
       <c r="D11">
-        <v>397347</v>
+        <v>91449.412278954595</v>
       </c>
       <c r="E11">
-        <v>4028</v>
+        <v>73849.379821659997</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -835,27 +844,27 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4477.1210000000001</v>
       </c>
       <c r="C12">
-        <v>120</v>
+        <v>155538.77600000001</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>169246.00899999999</v>
       </c>
       <c r="E12">
-        <v>6350</v>
+        <v>2257787.3859999999</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>807044.69799999997</v>
       </c>
       <c r="G12">
         <v>2009</v>
@@ -864,27 +873,27 @@
         <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>3264.8843990100004</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>161880.12389926001</v>
       </c>
       <c r="D13">
-        <v>9052</v>
+        <v>4155.8363345200005</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>396497.98932873999</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>579035.03979399009</v>
       </c>
       <c r="G13">
         <v>2009</v>
@@ -893,91 +902,91 @@
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>380</v>
+        <v>175.04419181900002</v>
       </c>
       <c r="C14">
-        <v>15415</v>
+        <v>24321.124804136998</v>
       </c>
       <c r="D14">
-        <v>14357</v>
+        <v>21552.784107606003</v>
       </c>
       <c r="E14">
-        <v>189114</v>
+        <v>124719.17195031201</v>
       </c>
       <c r="F14">
-        <v>68459</v>
+        <v>-7909.3422265470008</v>
       </c>
       <c r="G14">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>21</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>13999</v>
+        <v>3257.8266336804058</v>
       </c>
       <c r="D15">
-        <v>357</v>
+        <v>1341555.2870903057</v>
       </c>
       <c r="E15">
-        <v>33992</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>49766</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
         <v>22</v>
-      </c>
-      <c r="I15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B16">
-        <v>15.0510913</v>
+        <v>13074.036431465354</v>
       </c>
       <c r="C16">
-        <v>2179.1418033999998</v>
+        <v>22935.565539370829</v>
       </c>
       <c r="D16">
-        <v>1853.2058562</v>
+        <v>4119020.2977368468</v>
       </c>
       <c r="E16">
-        <v>10636.016988900001</v>
+        <v>87853.394683971695</v>
       </c>
       <c r="F16">
-        <v>680.08101690000001</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>2010</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
         <v>23</v>
@@ -985,19 +994,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1851.6641828255999</v>
       </c>
       <c r="C17">
-        <v>280.12266841619999</v>
+        <v>7997.9151796000006</v>
       </c>
       <c r="D17">
-        <v>115352.99115135901</v>
+        <v>2479.6353249630006</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>243293.36737507363</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1006,7 +1015,7 @@
         <v>2010</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
@@ -1014,28 +1023,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>1124.164783445</v>
+        <v>4175.5159999999996</v>
       </c>
       <c r="C18">
-        <v>2262.6014716250002</v>
+        <v>156041.07999999999</v>
       </c>
       <c r="D18">
-        <v>354171.9946463324</v>
+        <v>181695.821</v>
       </c>
       <c r="E18">
-        <v>7263.5344031250024</v>
+        <v>2287350.8569999998</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>839211.93599999999</v>
       </c>
       <c r="G18">
         <v>2010</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
         <v>25</v>
@@ -1043,28 +1052,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1827.4189925000001</v>
       </c>
       <c r="C19">
-        <v>687.69692000000009</v>
+        <v>162170.37029700004</v>
       </c>
       <c r="D19">
-        <v>80.979704000000012</v>
+        <v>4606.597643000001</v>
       </c>
       <c r="E19">
-        <v>20919.144136800001</v>
+        <v>456752.64631975017</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>646633.23786125006</v>
       </c>
       <c r="G19">
         <v>2010</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
         <v>26</v>
@@ -1072,219 +1081,219 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>159.21446112000001</v>
+        <v>79.848978369000008</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>29137.683157682</v>
       </c>
       <c r="D20">
-        <v>152.2169825</v>
+        <v>19819.336771145998</v>
       </c>
       <c r="E20">
-        <v>0.31995392</v>
+        <v>107010.10222631601</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>366.49518284200008</v>
       </c>
       <c r="G20">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>354.29198612983521</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>15136.997217925769</v>
+        <v>2539.9410225280317</v>
       </c>
       <c r="D21">
-        <v>15416.85135945438</v>
+        <v>1868623.6977048616</v>
       </c>
       <c r="E21">
-        <v>191972.59925957999</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>71207.022937836693</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>157.095776</v>
+        <v>28646.111376295881</v>
       </c>
       <c r="C22">
-        <v>14009.4557984</v>
+        <v>26722.184517105001</v>
       </c>
       <c r="D22">
-        <v>396.0104576</v>
+        <v>4752763.1308877952</v>
       </c>
       <c r="E22">
-        <v>39196.837875199999</v>
+        <v>27061.186016218759</v>
       </c>
       <c r="F22">
-        <v>55588.428655999996</v>
+        <v>32827.965864461628</v>
       </c>
       <c r="G22">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>1199.8207139776002</v>
       </c>
       <c r="C23">
-        <v>2569</v>
+        <v>15603.156946520003</v>
       </c>
       <c r="D23">
-        <v>1704</v>
+        <v>18.729717254000001</v>
       </c>
       <c r="E23">
-        <v>9138</v>
+        <v>178276.75797898322</v>
       </c>
       <c r="F23">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>2011</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>3785.5329999999999</v>
       </c>
       <c r="C24">
-        <v>218</v>
+        <v>167023.098</v>
       </c>
       <c r="D24">
-        <v>160673</v>
+        <v>159990.97500000001</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2163417.395</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>788678.47400000005</v>
       </c>
       <c r="G24">
         <v>2011</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>2463</v>
+        <v>2069.7563728200003</v>
       </c>
       <c r="C25">
-        <v>2371</v>
+        <v>89688.17203536001</v>
       </c>
       <c r="D25">
-        <v>408664</v>
+        <v>26253.109941900006</v>
       </c>
       <c r="E25">
-        <v>2254</v>
+        <v>501909.28108608013</v>
       </c>
       <c r="F25">
-        <v>2823</v>
+        <v>522277.8725634201</v>
       </c>
       <c r="G25">
         <v>2011</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>23.677413493000003</v>
       </c>
       <c r="C26">
-        <v>1342</v>
+        <v>9358.0344849220019</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>20767.097760678</v>
       </c>
       <c r="E26">
-        <v>15329</v>
+        <v>113710.27357383301</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>29106.313459827001</v>
       </c>
       <c r="G26">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>432.48363987778805</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1509394.997783239</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1293,477 +1302,477 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>322</v>
+        <v>42891.945829114266</v>
       </c>
       <c r="C28">
-        <v>17117</v>
+        <v>4440.6771102952507</v>
       </c>
       <c r="D28">
-        <v>13612</v>
+        <v>3939039.5273444061</v>
       </c>
       <c r="E28">
-        <v>181044</v>
+        <v>22487.79391134925</v>
       </c>
       <c r="F28">
-        <v>67100</v>
+        <v>30007.575645324756</v>
       </c>
       <c r="G28">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>178</v>
+        <v>1561.6638619296</v>
       </c>
       <c r="C29">
-        <v>8025</v>
+        <v>10005.060772880001</v>
       </c>
       <c r="D29">
-        <v>2258</v>
+        <v>0.31867246700000001</v>
       </c>
       <c r="E29">
-        <v>42860</v>
+        <v>117629.2573432616</v>
       </c>
       <c r="F29">
-        <v>44922</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>8047.067</v>
       </c>
       <c r="C30">
-        <v>818</v>
+        <v>129093.977</v>
       </c>
       <c r="D30">
-        <v>1786</v>
+        <v>140875.71299999999</v>
       </c>
       <c r="E30">
-        <v>9764</v>
+        <v>2123462.2179999999</v>
       </c>
       <c r="F30">
-        <v>2503</v>
+        <v>726563.174</v>
       </c>
       <c r="G30">
         <v>2012</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2005.8396373200003</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>247141.79619178004</v>
       </c>
       <c r="D31">
-        <v>129785</v>
+        <v>25330.558563700004</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>540329.07586967992</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>505785.04997102008</v>
       </c>
       <c r="G31">
         <v>2012</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>3688</v>
+        <v>31.446365141000005</v>
       </c>
       <c r="C32">
-        <v>500</v>
+        <v>6907.3263542890008</v>
       </c>
       <c r="D32">
-        <v>338696</v>
+        <v>18808.401937950002</v>
       </c>
       <c r="E32">
-        <v>1816</v>
+        <v>7862.5624042060008</v>
       </c>
       <c r="F32">
-        <v>2580</v>
+        <v>93221.273615239028</v>
       </c>
       <c r="G32">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>688230.66371674801</v>
       </c>
       <c r="E33">
-        <v>10114</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>134</v>
+        <v>13379.814551795998</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1428.490597149</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1905230.8543598328</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>5479.0826559342504</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>4238.8453954096258</v>
       </c>
       <c r="G34">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>681</v>
+        <v>857.69516106559979</v>
       </c>
       <c r="C35">
-        <v>16176</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>11920</v>
+        <v>2943.9270894169999</v>
       </c>
       <c r="E35">
-        <v>174347</v>
+        <v>306.48304306599999</v>
       </c>
       <c r="F35">
-        <v>61475</v>
+        <v>0.60669523200000008</v>
       </c>
       <c r="G35">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>172</v>
+        <v>11012.074000000001</v>
       </c>
       <c r="C36">
-        <v>22425</v>
+        <v>101197.344</v>
       </c>
       <c r="D36">
-        <v>2177</v>
+        <v>143997.90299999999</v>
       </c>
       <c r="E36">
-        <v>45263</v>
+        <v>2086084.9790000001</v>
       </c>
       <c r="F36">
-        <v>43476</v>
+        <v>693816.52899999998</v>
       </c>
       <c r="G36">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I36" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>1686.8617200000003</v>
       </c>
       <c r="C37">
-        <v>614</v>
+        <v>87728.553414000009</v>
       </c>
       <c r="D37">
-        <v>1617</v>
+        <v>25091.534268000003</v>
       </c>
       <c r="E37">
-        <v>8275</v>
+        <v>499845.95375400019</v>
       </c>
       <c r="F37">
-        <v>403</v>
+        <v>459854.51938200009</v>
       </c>
       <c r="G37">
         <v>2013</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>33.29915788600001</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>5247.6585027230003</v>
       </c>
       <c r="D38">
-        <v>59177</v>
+        <v>15271.088362839004</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>7322.5052637409999</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>91920.881443750011</v>
       </c>
       <c r="G38">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>163820</v>
+        <v>706772.8105127021</v>
       </c>
       <c r="E39">
-        <v>357</v>
+        <v>3.9110294400000002E-2</v>
       </c>
       <c r="F39">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>15946.125558132004</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>2725.134898794</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>2014237.0190173772</v>
       </c>
       <c r="E40">
-        <v>26</v>
+        <v>3910.7142906961262</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>4402.3744157428746</v>
       </c>
       <c r="G40">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>74</v>
+        <v>749.04615660159993</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>291</v>
+        <v>6708.6722157700005</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>2011.81234012</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42">
-        <v>930</v>
+        <v>10711.755999999999</v>
       </c>
       <c r="C42">
-        <v>14370</v>
+        <v>94600.263000000006</v>
       </c>
       <c r="D42">
-        <v>12161</v>
+        <v>125310.727</v>
       </c>
       <c r="E42">
-        <v>170279</v>
+        <v>2078448.9410000001</v>
       </c>
       <c r="F42">
-        <v>58593</v>
+        <v>673240.54</v>
       </c>
       <c r="G42">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43">
-        <v>145</v>
+        <v>1579.1307040000002</v>
       </c>
       <c r="C43">
-        <v>8449</v>
+        <v>347394.03595200001</v>
       </c>
       <c r="D43">
-        <v>2156</v>
+        <v>27734.66576</v>
       </c>
       <c r="E43">
-        <v>41936</v>
+        <v>475666.33941600029</v>
       </c>
       <c r="F43">
-        <v>38746</v>
+        <v>500382.573584</v>
       </c>
       <c r="G43">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1771,28 +1780,28 @@
         <v>9</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>24.482419996000001</v>
       </c>
       <c r="C44">
-        <v>468</v>
+        <v>6805.9849800780012</v>
       </c>
       <c r="D44">
-        <v>1313</v>
+        <v>17457.268801010003</v>
       </c>
       <c r="E44">
-        <v>613</v>
+        <v>7752.9281852259992</v>
       </c>
       <c r="F44">
-        <v>7904</v>
+        <v>88413.64700051301</v>
       </c>
       <c r="G44">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1806,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>60772</v>
+        <v>697278.25838702044</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1815,42 +1824,42 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B46">
-        <v>1371</v>
+        <v>16401.037026297003</v>
       </c>
       <c r="C46">
-        <v>308</v>
+        <v>18600.834416240999</v>
       </c>
       <c r="D46">
-        <v>173193</v>
+        <v>2127464.4524398101</v>
       </c>
       <c r="E46">
-        <v>263</v>
+        <v>2062.0316693968753</v>
       </c>
       <c r="F46">
-        <v>379</v>
+        <v>606.0293099753751</v>
       </c>
       <c r="G46">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1861,25 +1870,25 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>5292.5131460360008</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>6175.1836667410007</v>
       </c>
       <c r="E47">
-        <v>173</v>
+        <v>1502.4702564400002</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1887,28 +1896,28 @@
         <v>13</v>
       </c>
       <c r="B48">
-        <v>64</v>
+        <v>6027.1710000000003</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>90510.528999999995</v>
       </c>
       <c r="D48">
-        <v>664</v>
+        <v>119391.80100000001</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>2101692.4720000001</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>675851.27300000004</v>
       </c>
       <c r="G48">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1916,286 +1925,286 @@
         <v>14</v>
       </c>
       <c r="B49">
-        <v>904</v>
+        <v>1072.4371900000001</v>
       </c>
       <c r="C49">
-        <v>13832</v>
+        <v>300919.50460000004</v>
       </c>
       <c r="D49">
-        <v>10577</v>
+        <v>29284.968020000004</v>
       </c>
       <c r="E49">
-        <v>169426</v>
+        <v>470099.12587000005</v>
       </c>
       <c r="F49">
-        <v>56823</v>
+        <v>469175.34334000002</v>
       </c>
       <c r="G49">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>10.35008361</v>
+      </c>
+      <c r="C50">
+        <v>8533.2861557770011</v>
+      </c>
+      <c r="D50">
+        <v>15407.517798276</v>
+      </c>
+      <c r="E50">
+        <v>12243.037234983001</v>
+      </c>
+      <c r="F50">
+        <v>77462.939094108006</v>
+      </c>
+      <c r="G50">
+        <v>2016</v>
+      </c>
+      <c r="H50" t="s">
         <v>15</v>
       </c>
-      <c r="B50">
-        <v>136</v>
-      </c>
-      <c r="C50">
-        <v>30012</v>
-      </c>
-      <c r="D50">
-        <v>2384</v>
-      </c>
-      <c r="E50">
-        <v>40738</v>
-      </c>
-      <c r="F50">
-        <v>43016</v>
-      </c>
-      <c r="G50">
-        <v>2014</v>
-      </c>
-      <c r="H50" t="s">
-        <v>22</v>
-      </c>
       <c r="I50" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>2.1051091999999998</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>591.01929619999987</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1501.0549269999999</v>
+        <v>750690.31132961798</v>
       </c>
       <c r="E51">
-        <v>642.67797280000013</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>7602.2052451</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H51" t="s">
         <v>16</v>
       </c>
       <c r="I51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>11362.536951315484</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>3177.6802110345607</v>
       </c>
       <c r="D52">
-        <v>59955.138296390403</v>
+        <v>2257418.2889907355</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>10354.433291923935</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>212.52470068947005</v>
       </c>
       <c r="G52">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H52" t="s">
         <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B53">
-        <v>1410.2353419000001</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>1545.4189673999999</v>
+        <v>670.00039929800005</v>
       </c>
       <c r="D53">
-        <v>182929.01568700001</v>
+        <v>4311.2272882300003</v>
       </c>
       <c r="E53">
-        <v>72.29351236250001</v>
+        <v>133.32451269800004</v>
       </c>
       <c r="F53">
-        <v>52.109141012499997</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H53" t="s">
         <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>18493.945</v>
       </c>
       <c r="C54">
-        <v>455.07421720000002</v>
+        <v>94142.804000000004</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>134262.31400000001</v>
       </c>
       <c r="E54">
-        <v>129.189188</v>
+        <v>2085830.0649999999</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>679768.29200000002</v>
       </c>
       <c r="G54">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H54" t="s">
         <v>19</v>
       </c>
       <c r="I54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1103.6869999999999</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>339988.65787500003</v>
       </c>
       <c r="D55">
-        <v>611.22547750000001</v>
+        <v>18412.470625000002</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>467995.12512500002</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>410539.72687500005</v>
       </c>
       <c r="G55">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H55" t="s">
         <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B56">
-        <v>518.92934559608852</v>
+        <v>10.158415395</v>
       </c>
       <c r="C56">
-        <v>13529.68031977417</v>
+        <v>4983.8847052400006</v>
       </c>
       <c r="D56">
-        <v>10279.43444154288</v>
+        <v>13246.829232700002</v>
       </c>
       <c r="E56">
-        <v>175233.31642569459</v>
+        <v>7809.7258662710001</v>
       </c>
       <c r="F56">
-        <v>58189.66457367369</v>
+        <v>70282.255531586008</v>
       </c>
       <c r="G56">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
         <v>21</v>
-      </c>
-      <c r="I56" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B57">
-        <v>91.283799999999999</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>25750.165799999999</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>2492.6804000000002</v>
+        <v>697957.86049539631</v>
       </c>
       <c r="E57">
-        <v>39877.463600000003</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>39935.306800000013</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" t="s">
         <v>22</v>
-      </c>
-      <c r="I57" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B58">
-        <v>0.88994700000000004</v>
+        <v>15240.28235233644</v>
       </c>
       <c r="C58">
-        <v>751.88985150000008</v>
+        <v>3233.3695014423611</v>
       </c>
       <c r="D58">
-        <v>1324.8080652000001</v>
+        <v>2220854.3351514097</v>
       </c>
       <c r="E58">
-        <v>1034.5524005</v>
+        <v>1665.096188461725</v>
       </c>
       <c r="F58">
-        <v>6660.6138516000001</v>
+        <v>380.84005322142008</v>
       </c>
       <c r="G58">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I58" t="s">
         <v>23</v>
@@ -2203,28 +2212,28 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.60669523199999997</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>3260.2671215380001</v>
       </c>
       <c r="D59">
-        <v>64547.748179674803</v>
+        <v>9778.783322362</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>177.35860252399999</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I59" t="s">
         <v>24</v>
@@ -2232,28 +2241,28 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B60">
-        <v>977.00231739600008</v>
+        <v>9346.5010000000002</v>
       </c>
       <c r="C60">
-        <v>724.16608998599997</v>
+        <v>93077.667000000001</v>
       </c>
       <c r="D60">
-        <v>194103.03430702811</v>
+        <v>202584.01800000001</v>
       </c>
       <c r="E60">
-        <v>439.3862318505</v>
+        <v>2014775.1429999999</v>
       </c>
       <c r="F60">
-        <v>18.273834968999999</v>
+        <v>675199.70700000005</v>
       </c>
       <c r="G60">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I60" t="s">
         <v>25</v>
@@ -2261,118 +2270,31 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1408.2621624999999</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>355520.929925</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>17402.172524999998</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>491255.32865000021</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>458541.62147499999</v>
       </c>
       <c r="G61">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>57.609664600000002</v>
-      </c>
-      <c r="D62">
-        <v>370.69882100000001</v>
-      </c>
-      <c r="E62">
-        <v>11.4638446</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>2016</v>
-      </c>
-      <c r="H62" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63">
-        <v>1563.638372074184</v>
-      </c>
-      <c r="C63">
-        <v>13679.58045547785</v>
-      </c>
-      <c r="D63">
-        <v>11351.69949374635</v>
-      </c>
-      <c r="E63">
-        <v>170517.69171036661</v>
-      </c>
-      <c r="F63">
-        <v>57473.5020294766</v>
-      </c>
-      <c r="G63">
-        <v>2016</v>
-      </c>
-      <c r="H63" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64">
-        <v>94.9</v>
-      </c>
-      <c r="C64">
-        <v>29300.375</v>
-      </c>
-      <c r="D64">
-        <v>1583.1875</v>
-      </c>
-      <c r="E64">
-        <v>40173.724999999977</v>
-      </c>
-      <c r="F64">
-        <v>35300.0625</v>
-      </c>
-      <c r="G64">
-        <v>2016</v>
-      </c>
-      <c r="H64" t="s">
-        <v>22</v>
-      </c>
-      <c r="I64" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
